--- a/INTLINE/data/132/DOUANES/Merchandise Trade NSA_historical.xlsx
+++ b/INTLINE/data/132/DOUANES/Merchandise Trade NSA_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JR20"/>
+  <dimension ref="A1:JS20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1750,6 +1750,11 @@
       <c r="JR1" s="1" t="inlineStr">
         <is>
           <t>2022-01</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>2022-02</t>
         </is>
       </c>
     </row>
@@ -2453,118 +2458,121 @@
         <v>22432.303903</v>
       </c>
       <c r="IG2" t="n">
-        <v>18844.036887</v>
+        <v>18844.056934</v>
       </c>
       <c r="IH2" t="n">
-        <v>22039.164839</v>
+        <v>22039.447545</v>
       </c>
       <c r="II2" t="n">
-        <v>21819.94259</v>
+        <v>21820.251204</v>
       </c>
       <c r="IJ2" t="n">
-        <v>23637.881912</v>
+        <v>23645.61229</v>
       </c>
       <c r="IK2" t="n">
-        <v>22120.53366</v>
+        <v>22120.019573</v>
       </c>
       <c r="IL2" t="n">
-        <v>22510.959624</v>
+        <v>22510.68594</v>
       </c>
       <c r="IM2" t="n">
-        <v>21294.840544</v>
+        <v>21311.333907</v>
       </c>
       <c r="IN2" t="n">
-        <v>22718.218685</v>
+        <v>22733.857611</v>
       </c>
       <c r="IO2" t="n">
-        <v>16658.500524</v>
+        <v>16683.833952</v>
       </c>
       <c r="IP2" t="n">
-        <v>21005.764053</v>
+        <v>21053.279071</v>
       </c>
       <c r="IQ2" t="n">
-        <v>23116.809253</v>
+        <v>23155.331781</v>
       </c>
       <c r="IR2" t="n">
-        <v>21619.236345</v>
+        <v>21653.531535</v>
       </c>
       <c r="IS2" t="n">
-        <v>19229.793532</v>
+        <v>19252.355799</v>
       </c>
       <c r="IT2" t="n">
-        <v>21288.702089</v>
+        <v>21319.313271</v>
       </c>
       <c r="IU2" t="n">
-        <v>22020.484961</v>
+        <v>22048.507193</v>
       </c>
       <c r="IV2" t="n">
-        <v>19782.453918</v>
+        <v>19799.963129</v>
       </c>
       <c r="IW2" t="n">
-        <v>12796.678904</v>
+        <v>12806.299396</v>
       </c>
       <c r="IX2" t="n">
-        <v>14193.92807</v>
+        <v>14213.624441</v>
       </c>
       <c r="IY2" t="n">
-        <v>18594.991589</v>
+        <v>18622.485399</v>
       </c>
       <c r="IZ2" t="n">
-        <v>19025.48804</v>
+        <v>19052.577145</v>
       </c>
       <c r="JA2" t="n">
-        <v>14787.621312</v>
+        <v>14802.384521</v>
       </c>
       <c r="JB2" t="n">
-        <v>20848.07902</v>
+        <v>20877.672545</v>
       </c>
       <c r="JC2" t="n">
-        <v>21553.93213</v>
+        <v>21577.827336</v>
       </c>
       <c r="JD2" t="n">
-        <v>21102.174809</v>
+        <v>21128.375229</v>
       </c>
       <c r="JE2" t="n">
-        <v>18706.027437</v>
+        <v>18733.113652</v>
       </c>
       <c r="JF2" t="n">
-        <v>19767.469822</v>
+        <v>19793.16608</v>
       </c>
       <c r="JG2" t="n">
-        <v>19978.060502</v>
+        <v>20008.384981</v>
       </c>
       <c r="JH2" t="n">
-        <v>24216.055205</v>
+        <v>24256.590146</v>
       </c>
       <c r="JI2" t="n">
-        <v>20953.322335</v>
+        <v>20989.273598</v>
       </c>
       <c r="JJ2" t="n">
-        <v>20065.411812</v>
+        <v>20096.706894</v>
       </c>
       <c r="JK2" t="n">
-        <v>24603.327012</v>
+        <v>24653.06797</v>
       </c>
       <c r="JL2" t="n">
-        <v>21279.8648</v>
+        <v>21304.002181</v>
       </c>
       <c r="JM2" t="n">
-        <v>17903.024122</v>
+        <v>17910.195744</v>
       </c>
       <c r="JN2" t="n">
-        <v>23387.506361</v>
+        <v>23405.206359</v>
       </c>
       <c r="JO2" t="n">
-        <v>24116.327717</v>
+        <v>24119.930879</v>
       </c>
       <c r="JP2" t="n">
-        <v>25222.169324</v>
+        <v>25238.533727</v>
       </c>
       <c r="JQ2" t="n">
-        <v>23395.937175</v>
+        <v>23334.363142</v>
       </c>
       <c r="JR2" t="n">
-        <v>25063.16044</v>
+        <v>25278.438943</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>25449.493431</v>
       </c>
     </row>
     <row r="3">
@@ -3228,157 +3236,160 @@
         <v>26234.588109</v>
       </c>
       <c r="HT3" t="n">
-        <v>26889.425929</v>
+        <v>26889.476733</v>
       </c>
       <c r="HU3" t="n">
-        <v>22573.095933</v>
+        <v>22573.096963</v>
       </c>
       <c r="HV3" t="n">
-        <v>25060.303648</v>
+        <v>25060.441323</v>
       </c>
       <c r="HW3" t="n">
-        <v>24548.060266</v>
+        <v>24548.179171</v>
       </c>
       <c r="HX3" t="n">
-        <v>27232.860678</v>
+        <v>27232.989036</v>
       </c>
       <c r="HY3" t="n">
-        <v>25271.622961</v>
+        <v>25271.741631</v>
       </c>
       <c r="HZ3" t="n">
-        <v>25462.120724</v>
+        <v>25462.25782</v>
       </c>
       <c r="IA3" t="n">
-        <v>26963.171246</v>
+        <v>26963.283048</v>
       </c>
       <c r="IB3" t="n">
-        <v>25235.404755</v>
+        <v>25235.51453</v>
       </c>
       <c r="IC3" t="n">
-        <v>20261.816731</v>
+        <v>20261.902566</v>
       </c>
       <c r="ID3" t="n">
-        <v>24577.488855</v>
+        <v>24577.53577</v>
       </c>
       <c r="IE3" t="n">
-        <v>27359.327524</v>
+        <v>27359.438391</v>
       </c>
       <c r="IF3" t="n">
-        <v>26320.328356</v>
+        <v>26320.436842</v>
       </c>
       <c r="IG3" t="n">
-        <v>22797.060592</v>
+        <v>22797.148185</v>
       </c>
       <c r="IH3" t="n">
-        <v>24982.070104</v>
+        <v>24982.190198</v>
       </c>
       <c r="II3" t="n">
-        <v>25593.672907</v>
+        <v>25593.134251</v>
       </c>
       <c r="IJ3" t="n">
-        <v>27546.098049</v>
+        <v>27547.844673</v>
       </c>
       <c r="IK3" t="n">
-        <v>25654.050245</v>
+        <v>25652.879364</v>
       </c>
       <c r="IL3" t="n">
-        <v>26896.311872</v>
+        <v>26894.685837</v>
       </c>
       <c r="IM3" t="n">
-        <v>25520.470542</v>
+        <v>25526.01056</v>
       </c>
       <c r="IN3" t="n">
-        <v>26458.419389</v>
+        <v>26457.669207</v>
       </c>
       <c r="IO3" t="n">
-        <v>19258.730842</v>
+        <v>19267.823392</v>
       </c>
       <c r="IP3" t="n">
-        <v>25294.795529</v>
+        <v>25314.223001</v>
       </c>
       <c r="IQ3" t="n">
-        <v>27471.523651</v>
+        <v>27498.024859</v>
       </c>
       <c r="IR3" t="n">
-        <v>25331.298465</v>
+        <v>25342.797456</v>
       </c>
       <c r="IS3" t="n">
-        <v>22819.442287</v>
+        <v>22847.288125</v>
       </c>
       <c r="IT3" t="n">
-        <v>24502.117277</v>
+        <v>24516.07762</v>
       </c>
       <c r="IU3" t="n">
-        <v>24870.587249</v>
+        <v>24875.780986</v>
       </c>
       <c r="IV3" t="n">
-        <v>22422.481392</v>
+        <v>22436.582063</v>
       </c>
       <c r="IW3" t="n">
-        <v>15364.441007</v>
+        <v>15364.847311</v>
       </c>
       <c r="IX3" t="n">
-        <v>18076.343612</v>
+        <v>18079.854214</v>
       </c>
       <c r="IY3" t="n">
-        <v>23550.610489</v>
+        <v>23567.676131</v>
       </c>
       <c r="IZ3" t="n">
-        <v>23561.982259</v>
+        <v>23562.143119</v>
       </c>
       <c r="JA3" t="n">
-        <v>18496.418675</v>
+        <v>18506.856703</v>
       </c>
       <c r="JB3" t="n">
-        <v>25127.912671</v>
+        <v>25122.653094</v>
       </c>
       <c r="JC3" t="n">
-        <v>26077.301771</v>
+        <v>26081.354558</v>
       </c>
       <c r="JD3" t="n">
-        <v>24964.54949</v>
+        <v>24977.981069</v>
       </c>
       <c r="JE3" t="n">
-        <v>23569.915014</v>
+        <v>23579.032873</v>
       </c>
       <c r="JF3" t="n">
-        <v>23171.843672</v>
+        <v>23171.311394</v>
       </c>
       <c r="JG3" t="n">
-        <v>24551.299375</v>
+        <v>24569.15009</v>
       </c>
       <c r="JH3" t="n">
-        <v>28721.685311</v>
+        <v>28740.765925</v>
       </c>
       <c r="JI3" t="n">
-        <v>26701.848758</v>
+        <v>26715.750486</v>
       </c>
       <c r="JJ3" t="n">
-        <v>25381.410734</v>
+        <v>25403.825605</v>
       </c>
       <c r="JK3" t="n">
-        <v>28400.517012</v>
+        <v>28417.259881</v>
       </c>
       <c r="JL3" t="n">
-        <v>25993.518081</v>
+        <v>25993.059132</v>
       </c>
       <c r="JM3" t="n">
-        <v>22008.431966</v>
+        <v>22011.503124</v>
       </c>
       <c r="JN3" t="n">
-        <v>27481.2782</v>
+        <v>27469.152389</v>
       </c>
       <c r="JO3" t="n">
-        <v>28489.97684</v>
+        <v>28450.538216</v>
       </c>
       <c r="JP3" t="n">
-        <v>30577.76075</v>
+        <v>30474.38208</v>
       </c>
       <c r="JQ3" t="n">
-        <v>29850.622975</v>
+        <v>29624.112263</v>
       </c>
       <c r="JR3" t="n">
-        <v>28592.439661</v>
+        <v>28155.466047</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>29239.651822</v>
       </c>
     </row>
     <row r="4">
@@ -4090,109 +4101,112 @@
         <v>1994.839179</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2366.598957</v>
+        <v>2366.566428</v>
       </c>
       <c r="IK4" t="n">
-        <v>2546.283104</v>
+        <v>2546.188476</v>
       </c>
       <c r="IL4" t="n">
-        <v>2122.302823</v>
+        <v>2122.206496</v>
       </c>
       <c r="IM4" t="n">
-        <v>1992.782134</v>
+        <v>1992.701194</v>
       </c>
       <c r="IN4" t="n">
-        <v>2233.631086</v>
+        <v>2233.561629</v>
       </c>
       <c r="IO4" t="n">
-        <v>1625.007153</v>
+        <v>1624.979779</v>
       </c>
       <c r="IP4" t="n">
-        <v>1876.321173</v>
+        <v>1876.285185</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2316.07161</v>
+        <v>2316.026393</v>
       </c>
       <c r="IR4" t="n">
-        <v>2546.064474</v>
+        <v>2546.017644</v>
       </c>
       <c r="IS4" t="n">
-        <v>2469.386077</v>
+        <v>2469.312958</v>
       </c>
       <c r="IT4" t="n">
-        <v>1789.736367</v>
+        <v>1789.677331</v>
       </c>
       <c r="IU4" t="n">
-        <v>2260.300841</v>
+        <v>2260.258735</v>
       </c>
       <c r="IV4" t="n">
-        <v>2008.758719</v>
+        <v>2008.723575</v>
       </c>
       <c r="IW4" t="n">
-        <v>1599.096087</v>
+        <v>1599.08132</v>
       </c>
       <c r="IX4" t="n">
-        <v>1401.85839</v>
+        <v>1401.847695</v>
       </c>
       <c r="IY4" t="n">
-        <v>1848.045732</v>
+        <v>1848.027785</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2116.690331</v>
+        <v>2116.660917</v>
       </c>
       <c r="JA4" t="n">
-        <v>1378.796228</v>
+        <v>1378.774676</v>
       </c>
       <c r="JB4" t="n">
-        <v>1680.878828</v>
+        <v>1680.851682</v>
       </c>
       <c r="JC4" t="n">
-        <v>1890.181498</v>
+        <v>1890.124855</v>
       </c>
       <c r="JD4" t="n">
-        <v>2166.087488</v>
+        <v>2166.026264</v>
       </c>
       <c r="JE4" t="n">
-        <v>2134.821802</v>
+        <v>2134.769605</v>
       </c>
       <c r="JF4" t="n">
-        <v>1781.659647</v>
+        <v>1781.601544</v>
       </c>
       <c r="JG4" t="n">
-        <v>2026.066474</v>
+        <v>2026.040915</v>
       </c>
       <c r="JH4" t="n">
-        <v>2158.350239</v>
+        <v>2158.279801</v>
       </c>
       <c r="JI4" t="n">
-        <v>2029.047861</v>
+        <v>2028.960644</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1714.443482</v>
+        <v>1714.353777</v>
       </c>
       <c r="JK4" t="n">
-        <v>1924.451907</v>
+        <v>1924.307432</v>
       </c>
       <c r="JL4" t="n">
-        <v>1837.411484</v>
+        <v>1836.716796</v>
       </c>
       <c r="JM4" t="n">
-        <v>1700.236841</v>
+        <v>1700.071549</v>
       </c>
       <c r="JN4" t="n">
-        <v>1959.303467</v>
+        <v>1959.002231</v>
       </c>
       <c r="JO4" t="n">
-        <v>1917.525541</v>
+        <v>1917.374714</v>
       </c>
       <c r="JP4" t="n">
-        <v>1884.238842</v>
+        <v>1883.239263</v>
       </c>
       <c r="JQ4" t="n">
-        <v>2558.557936</v>
+        <v>2557.726925</v>
       </c>
       <c r="JR4" t="n">
-        <v>1806.5138</v>
+        <v>1807.396943</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1988.54872</v>
       </c>
     </row>
     <row r="5">
@@ -4901,112 +4915,115 @@
         <v>2283.098592</v>
       </c>
       <c r="II5" t="n">
-        <v>2129.980392</v>
+        <v>2129.972157</v>
       </c>
       <c r="IJ5" t="n">
-        <v>2340.092125</v>
+        <v>2340.083508</v>
       </c>
       <c r="IK5" t="n">
-        <v>2433.049378</v>
+        <v>2433.040705</v>
       </c>
       <c r="IL5" t="n">
-        <v>2273.518708</v>
+        <v>2273.507394</v>
       </c>
       <c r="IM5" t="n">
-        <v>2050.944959</v>
+        <v>2050.937774</v>
       </c>
       <c r="IN5" t="n">
-        <v>2351.992432</v>
+        <v>2351.984391</v>
       </c>
       <c r="IO5" t="n">
-        <v>1898.380743</v>
+        <v>1898.376353</v>
       </c>
       <c r="IP5" t="n">
-        <v>1756.275721</v>
+        <v>1756.270277</v>
       </c>
       <c r="IQ5" t="n">
-        <v>2370.943653</v>
+        <v>2370.938876</v>
       </c>
       <c r="IR5" t="n">
-        <v>2138.764818</v>
+        <v>2138.760337</v>
       </c>
       <c r="IS5" t="n">
-        <v>2052.328428</v>
+        <v>2052.324411</v>
       </c>
       <c r="IT5" t="n">
-        <v>1877.684124</v>
+        <v>1877.68581</v>
       </c>
       <c r="IU5" t="n">
-        <v>2157.725857</v>
+        <v>2157.723881</v>
       </c>
       <c r="IV5" t="n">
-        <v>1595.320601</v>
+        <v>1595.318861</v>
       </c>
       <c r="IW5" t="n">
-        <v>1077.839282</v>
+        <v>1077.83766</v>
       </c>
       <c r="IX5" t="n">
-        <v>1210.717617</v>
+        <v>1210.714884</v>
       </c>
       <c r="IY5" t="n">
-        <v>1581.474798</v>
+        <v>1581.475373</v>
       </c>
       <c r="IZ5" t="n">
-        <v>1623.350991</v>
+        <v>1623.349689</v>
       </c>
       <c r="JA5" t="n">
-        <v>1277.997816</v>
+        <v>1277.99182</v>
       </c>
       <c r="JB5" t="n">
-        <v>1751.715424</v>
+        <v>1751.705889</v>
       </c>
       <c r="JC5" t="n">
-        <v>1654.870717</v>
+        <v>1654.865644</v>
       </c>
       <c r="JD5" t="n">
-        <v>1735.872469</v>
+        <v>1735.879604</v>
       </c>
       <c r="JE5" t="n">
-        <v>1622.465215</v>
+        <v>1622.469574</v>
       </c>
       <c r="JF5" t="n">
-        <v>1607.984509</v>
+        <v>1608.014742</v>
       </c>
       <c r="JG5" t="n">
-        <v>1884.113106</v>
+        <v>1884.206639</v>
       </c>
       <c r="JH5" t="n">
-        <v>2323.406628</v>
+        <v>2323.50109</v>
       </c>
       <c r="JI5" t="n">
-        <v>2118.101316</v>
+        <v>2118.143877</v>
       </c>
       <c r="JJ5" t="n">
-        <v>1907.951024</v>
+        <v>1908.015236</v>
       </c>
       <c r="JK5" t="n">
-        <v>2000.589559</v>
+        <v>2000.560467</v>
       </c>
       <c r="JL5" t="n">
-        <v>1791.570713</v>
+        <v>1791.488889</v>
       </c>
       <c r="JM5" t="n">
-        <v>2095.278649</v>
+        <v>2095.197909</v>
       </c>
       <c r="JN5" t="n">
-        <v>2306.967968</v>
+        <v>2306.86117</v>
       </c>
       <c r="JO5" t="n">
-        <v>2319.026159</v>
+        <v>2318.529868</v>
       </c>
       <c r="JP5" t="n">
-        <v>2776.918799</v>
+        <v>2774.640072</v>
       </c>
       <c r="JQ5" t="n">
-        <v>2520.713805</v>
+        <v>2530.157718</v>
       </c>
       <c r="JR5" t="n">
-        <v>2711.79715</v>
+        <v>2747.52921</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>2499.061049</v>
       </c>
     </row>
     <row r="6">
@@ -5569,112 +5586,115 @@
         <v>5994.958524</v>
       </c>
       <c r="II6" t="n">
-        <v>6038.297735</v>
+        <v>6038.287962</v>
       </c>
       <c r="IJ6" t="n">
-        <v>6573.427097</v>
+        <v>6574.144747</v>
       </c>
       <c r="IK6" t="n">
-        <v>5827.38196</v>
+        <v>5827.338112</v>
       </c>
       <c r="IL6" t="n">
-        <v>5745.695073</v>
+        <v>5745.675758</v>
       </c>
       <c r="IM6" t="n">
-        <v>5649.926532</v>
+        <v>5663.288031</v>
       </c>
       <c r="IN6" t="n">
-        <v>6120.413556</v>
+        <v>6136.716282</v>
       </c>
       <c r="IO6" t="n">
-        <v>4816.504604</v>
+        <v>4828.40511</v>
       </c>
       <c r="IP6" t="n">
-        <v>5737.663028</v>
+        <v>5769.686774</v>
       </c>
       <c r="IQ6" t="n">
-        <v>6390.861879</v>
+        <v>6417.894993</v>
       </c>
       <c r="IR6" t="n">
-        <v>5484.557089</v>
+        <v>5510.006901</v>
       </c>
       <c r="IS6" t="n">
-        <v>5511.406225</v>
+        <v>5529.836801</v>
       </c>
       <c r="IT6" t="n">
-        <v>5685.224505</v>
+        <v>5708.99794</v>
       </c>
       <c r="IU6" t="n">
-        <v>5967.711298</v>
+        <v>5990.014142</v>
       </c>
       <c r="IV6" t="n">
-        <v>5385.487174</v>
+        <v>5399.329803</v>
       </c>
       <c r="IW6" t="n">
-        <v>3462.253067</v>
+        <v>3471.866962</v>
       </c>
       <c r="IX6" t="n">
-        <v>3946.376041</v>
+        <v>3961.887981</v>
       </c>
       <c r="IY6" t="n">
-        <v>4702.207716</v>
+        <v>4721.359476</v>
       </c>
       <c r="IZ6" t="n">
-        <v>4886.231188</v>
+        <v>4906.355078</v>
       </c>
       <c r="JA6" t="n">
-        <v>4187.590755</v>
+        <v>4198.833312</v>
       </c>
       <c r="JB6" t="n">
-        <v>5662.978814</v>
+        <v>5688.033866</v>
       </c>
       <c r="JC6" t="n">
-        <v>5919.56825</v>
+        <v>5939.776465</v>
       </c>
       <c r="JD6" t="n">
-        <v>6057.83023</v>
+        <v>6082.078211</v>
       </c>
       <c r="JE6" t="n">
-        <v>4914.444914</v>
+        <v>4932.218882</v>
       </c>
       <c r="JF6" t="n">
-        <v>5145.101297</v>
+        <v>5168.289552</v>
       </c>
       <c r="JG6" t="n">
-        <v>5227.892709</v>
+        <v>5253.111035</v>
       </c>
       <c r="JH6" t="n">
-        <v>6628.419011</v>
+        <v>6661.305336</v>
       </c>
       <c r="JI6" t="n">
-        <v>5298.377514</v>
+        <v>5327.560925</v>
       </c>
       <c r="JJ6" t="n">
-        <v>5125.46624</v>
+        <v>5148.829929</v>
       </c>
       <c r="JK6" t="n">
-        <v>6165.716771</v>
+        <v>6205.052301</v>
       </c>
       <c r="JL6" t="n">
-        <v>5605.066638</v>
+        <v>5623.979794</v>
       </c>
       <c r="JM6" t="n">
-        <v>4963.237474</v>
+        <v>4973.340485</v>
       </c>
       <c r="JN6" t="n">
-        <v>6036.825166</v>
+        <v>6061.577081</v>
       </c>
       <c r="JO6" t="n">
-        <v>6372.460099</v>
+        <v>6396.208432</v>
       </c>
       <c r="JP6" t="n">
-        <v>6309.514515</v>
+        <v>6330.882388</v>
       </c>
       <c r="JQ6" t="n">
-        <v>5676.955169</v>
+        <v>5681.820894</v>
       </c>
       <c r="JR6" t="n">
-        <v>6312.712454</v>
+        <v>6364.755152</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>6453.018475</v>
       </c>
     </row>
     <row r="7">
@@ -6192,157 +6212,160 @@
         <v>7368.930033</v>
       </c>
       <c r="HT7" t="n">
-        <v>8030.585699</v>
+        <v>8030.616506</v>
       </c>
       <c r="HU7" t="n">
         <v>6294.804388</v>
       </c>
       <c r="HV7" t="n">
-        <v>7942.486719</v>
+        <v>7942.624394</v>
       </c>
       <c r="HW7" t="n">
-        <v>7217.204695</v>
+        <v>7217.3236</v>
       </c>
       <c r="HX7" t="n">
-        <v>7997.324969</v>
+        <v>7997.453327</v>
       </c>
       <c r="HY7" t="n">
-        <v>7292.418002</v>
+        <v>7292.536672</v>
       </c>
       <c r="HZ7" t="n">
-        <v>7113.404305</v>
+        <v>7113.541401</v>
       </c>
       <c r="IA7" t="n">
-        <v>7579.643294</v>
+        <v>7579.755096</v>
       </c>
       <c r="IB7" t="n">
-        <v>7263.925963</v>
+        <v>7264.035738</v>
       </c>
       <c r="IC7" t="n">
-        <v>5841.177284</v>
+        <v>5841.263119</v>
       </c>
       <c r="ID7" t="n">
-        <v>7232.873643</v>
+        <v>7232.987014</v>
       </c>
       <c r="IE7" t="n">
-        <v>7666.64012</v>
+        <v>7666.751771</v>
       </c>
       <c r="IF7" t="n">
-        <v>7318.548917</v>
+        <v>7318.640063</v>
       </c>
       <c r="IG7" t="n">
-        <v>6294.598368</v>
+        <v>6294.685961</v>
       </c>
       <c r="IH7" t="n">
-        <v>7140.978042</v>
+        <v>7141.077101</v>
       </c>
       <c r="II7" t="n">
-        <v>7159.880865</v>
+        <v>7159.936753</v>
       </c>
       <c r="IJ7" t="n">
-        <v>7948.454275</v>
+        <v>7948.753548</v>
       </c>
       <c r="IK7" t="n">
-        <v>7214.870267</v>
+        <v>7214.796184</v>
       </c>
       <c r="IL7" t="n">
-        <v>7616.034738</v>
+        <v>7615.946766</v>
       </c>
       <c r="IM7" t="n">
-        <v>6697.920734</v>
+        <v>6697.861857</v>
       </c>
       <c r="IN7" t="n">
-        <v>7382.861696</v>
+        <v>7382.770436</v>
       </c>
       <c r="IO7" t="n">
-        <v>5516.024049</v>
+        <v>5515.985568</v>
       </c>
       <c r="IP7" t="n">
-        <v>7286.697969</v>
+        <v>7286.548746</v>
       </c>
       <c r="IQ7" t="n">
-        <v>7835.030444</v>
+        <v>7834.91523</v>
       </c>
       <c r="IR7" t="n">
-        <v>7220.11365</v>
+        <v>7220.011986</v>
       </c>
       <c r="IS7" t="n">
-        <v>6014.283709</v>
+        <v>6014.344558</v>
       </c>
       <c r="IT7" t="n">
-        <v>6634.539347</v>
+        <v>6634.361605</v>
       </c>
       <c r="IU7" t="n">
-        <v>6995.739865</v>
+        <v>6995.506734</v>
       </c>
       <c r="IV7" t="n">
-        <v>6006.989949</v>
+        <v>6007.291166</v>
       </c>
       <c r="IW7" t="n">
-        <v>4102.856785</v>
+        <v>4103.137151</v>
       </c>
       <c r="IX7" t="n">
-        <v>4958.610046</v>
+        <v>4958.382893</v>
       </c>
       <c r="IY7" t="n">
-        <v>5865.401662</v>
+        <v>5863.811044</v>
       </c>
       <c r="IZ7" t="n">
-        <v>6004.220849</v>
+        <v>6004.079547</v>
       </c>
       <c r="JA7" t="n">
-        <v>4729.956403</v>
+        <v>4729.504924</v>
       </c>
       <c r="JB7" t="n">
-        <v>6694.21835</v>
+        <v>6693.515526</v>
       </c>
       <c r="JC7" t="n">
-        <v>6897.370982</v>
+        <v>6895.52354</v>
       </c>
       <c r="JD7" t="n">
-        <v>6830.726012</v>
+        <v>6829.583964</v>
       </c>
       <c r="JE7" t="n">
-        <v>6058.312193</v>
+        <v>6057.619325</v>
       </c>
       <c r="JF7" t="n">
-        <v>5999.0464</v>
+        <v>5997.753714</v>
       </c>
       <c r="JG7" t="n">
-        <v>6358.598454</v>
+        <v>6360.052811</v>
       </c>
       <c r="JH7" t="n">
-        <v>7464.373138</v>
+        <v>7472.584251</v>
       </c>
       <c r="JI7" t="n">
-        <v>6816.270009</v>
+        <v>6821.322483</v>
       </c>
       <c r="JJ7" t="n">
-        <v>6507.17383</v>
+        <v>6527.170324</v>
       </c>
       <c r="JK7" t="n">
-        <v>7144.468337</v>
+        <v>7148.795798</v>
       </c>
       <c r="JL7" t="n">
-        <v>6441.614049</v>
+        <v>6442.456558</v>
       </c>
       <c r="JM7" t="n">
-        <v>5601.150013</v>
+        <v>5601.84193</v>
       </c>
       <c r="JN7" t="n">
-        <v>6817.000152</v>
+        <v>6814.041264</v>
       </c>
       <c r="JO7" t="n">
-        <v>7002.817351</v>
+        <v>6991.387848</v>
       </c>
       <c r="JP7" t="n">
-        <v>7720.574481</v>
+        <v>7686.352569</v>
       </c>
       <c r="JQ7" t="n">
-        <v>7388.63473</v>
+        <v>7325.840838</v>
       </c>
       <c r="JR7" t="n">
-        <v>6864.099558</v>
+        <v>6836.081429</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>7515.488338</v>
       </c>
     </row>
     <row r="8">
@@ -6899,118 +6922,121 @@
         <v>3256.594641</v>
       </c>
       <c r="IG8" t="n">
-        <v>2625.905867</v>
+        <v>2625.925914</v>
       </c>
       <c r="IH8" t="n">
         <v>3313.404565</v>
       </c>
       <c r="II8" t="n">
-        <v>3142.436536</v>
+        <v>3142.44437</v>
       </c>
       <c r="IJ8" t="n">
-        <v>3432.680686</v>
+        <v>3432.673644</v>
       </c>
       <c r="IK8" t="n">
-        <v>3203.743296</v>
+        <v>3203.727111</v>
       </c>
       <c r="IL8" t="n">
-        <v>3353.279308</v>
+        <v>3353.257904</v>
       </c>
       <c r="IM8" t="n">
-        <v>3229.769919</v>
+        <v>3229.393913</v>
       </c>
       <c r="IN8" t="n">
-        <v>3387.936775</v>
+        <v>3387.492503</v>
       </c>
       <c r="IO8" t="n">
-        <v>2182.845034</v>
+        <v>2182.634609</v>
       </c>
       <c r="IP8" t="n">
-        <v>3061.395925</v>
+        <v>3061.100466</v>
       </c>
       <c r="IQ8" t="n">
-        <v>3413.628546</v>
+        <v>3413.304277</v>
       </c>
       <c r="IR8" t="n">
-        <v>3204.830943</v>
+        <v>3204.513299</v>
       </c>
       <c r="IS8" t="n">
-        <v>2670.111619</v>
+        <v>2669.706465</v>
       </c>
       <c r="IT8" t="n">
-        <v>3125.340058</v>
+        <v>3124.985939</v>
       </c>
       <c r="IU8" t="n">
-        <v>3189.150071</v>
+        <v>3188.791914</v>
       </c>
       <c r="IV8" t="n">
-        <v>2693.175387</v>
+        <v>2692.872149</v>
       </c>
       <c r="IW8" t="n">
-        <v>1986.83002</v>
+        <v>1986.692616</v>
       </c>
       <c r="IX8" t="n">
-        <v>2105.516783</v>
+        <v>2105.447528</v>
       </c>
       <c r="IY8" t="n">
-        <v>2613.246701</v>
+        <v>2613.042452</v>
       </c>
       <c r="IZ8" t="n">
-        <v>2866.591018</v>
+        <v>2866.790208</v>
       </c>
       <c r="JA8" t="n">
-        <v>1763.54074</v>
+        <v>1763.689136</v>
       </c>
       <c r="JB8" t="n">
-        <v>2906.724187</v>
+        <v>2906.407035</v>
       </c>
       <c r="JC8" t="n">
-        <v>3218.025882</v>
+        <v>3217.715801</v>
       </c>
       <c r="JD8" t="n">
-        <v>3080.060839</v>
+        <v>3079.375013</v>
       </c>
       <c r="JE8" t="n">
-        <v>2715.7792</v>
+        <v>2715.256691</v>
       </c>
       <c r="JF8" t="n">
-        <v>2938.972698</v>
+        <v>2939.187779</v>
       </c>
       <c r="JG8" t="n">
-        <v>2977.20664</v>
+        <v>2977.162826</v>
       </c>
       <c r="JH8" t="n">
-        <v>3477.585125</v>
+        <v>3477.491201</v>
       </c>
       <c r="JI8" t="n">
-        <v>3124.176951</v>
+        <v>3123.78041</v>
       </c>
       <c r="JJ8" t="n">
-        <v>3043.886928</v>
+        <v>3043.607635</v>
       </c>
       <c r="JK8" t="n">
-        <v>3726.118507</v>
+        <v>3725.602327</v>
       </c>
       <c r="JL8" t="n">
-        <v>3324.355679</v>
+        <v>3323.810894</v>
       </c>
       <c r="JM8" t="n">
-        <v>2176.875381</v>
+        <v>2176.378093</v>
       </c>
       <c r="JN8" t="n">
-        <v>3452.766072</v>
+        <v>3451.12541</v>
       </c>
       <c r="JO8" t="n">
-        <v>3525.400601</v>
+        <v>3521.757324</v>
       </c>
       <c r="JP8" t="n">
-        <v>3839.872022</v>
+        <v>3834.002289</v>
       </c>
       <c r="JQ8" t="n">
-        <v>3465.594854</v>
+        <v>3451.600275</v>
       </c>
       <c r="JR8" t="n">
-        <v>4138.44579</v>
+        <v>4164.91589</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>3930.232827</v>
       </c>
     </row>
     <row r="9">
@@ -7528,7 +7554,7 @@
         <v>3780.843456</v>
       </c>
       <c r="HT9" t="n">
-        <v>3829.225108</v>
+        <v>3829.227063</v>
       </c>
       <c r="HU9" t="n">
         <v>3200.042603</v>
@@ -7564,7 +7590,7 @@
         <v>3864.510997</v>
       </c>
       <c r="IF9" t="n">
-        <v>3764.34008</v>
+        <v>3764.35742</v>
       </c>
       <c r="IG9" t="n">
         <v>3239.235702</v>
@@ -7573,112 +7599,115 @@
         <v>3432.560327</v>
       </c>
       <c r="II9" t="n">
-        <v>3599.891851</v>
+        <v>3599.61168</v>
       </c>
       <c r="IJ9" t="n">
-        <v>3876.531324</v>
+        <v>3876.131862</v>
       </c>
       <c r="IK9" t="n">
-        <v>3566.586592</v>
+        <v>3566.297287</v>
       </c>
       <c r="IL9" t="n">
-        <v>3831.52412</v>
+        <v>3831.043531</v>
       </c>
       <c r="IM9" t="n">
-        <v>3885.030666</v>
+        <v>3884.774262</v>
       </c>
       <c r="IN9" t="n">
-        <v>4137.39507</v>
+        <v>4137.63974</v>
       </c>
       <c r="IO9" t="n">
-        <v>2570.523509</v>
+        <v>2570.473921</v>
       </c>
       <c r="IP9" t="n">
-        <v>3619.622566</v>
+        <v>3619.47487</v>
       </c>
       <c r="IQ9" t="n">
-        <v>4034.987989</v>
+        <v>4034.81077</v>
       </c>
       <c r="IR9" t="n">
-        <v>3629.792074</v>
+        <v>3630.054569</v>
       </c>
       <c r="IS9" t="n">
-        <v>3330.774486</v>
+        <v>3331.015935</v>
       </c>
       <c r="IT9" t="n">
-        <v>3359.492194</v>
+        <v>3359.774416</v>
       </c>
       <c r="IU9" t="n">
-        <v>3634.827448</v>
+        <v>3636.794634</v>
       </c>
       <c r="IV9" t="n">
-        <v>3057.701907</v>
+        <v>3059.432933</v>
       </c>
       <c r="IW9" t="n">
-        <v>1935.334414</v>
+        <v>1935.439752</v>
       </c>
       <c r="IX9" t="n">
-        <v>2609.447228</v>
+        <v>2611.893278</v>
       </c>
       <c r="IY9" t="n">
-        <v>3451.21676</v>
+        <v>3450.875493</v>
       </c>
       <c r="IZ9" t="n">
-        <v>3675.395756</v>
+        <v>3674.761939</v>
       </c>
       <c r="JA9" t="n">
-        <v>2618.645533</v>
+        <v>2617.917428</v>
       </c>
       <c r="JB9" t="n">
-        <v>3907.175364</v>
+        <v>3906.00336</v>
       </c>
       <c r="JC9" t="n">
-        <v>3837.194395</v>
+        <v>3835.973867</v>
       </c>
       <c r="JD9" t="n">
-        <v>3678.54641</v>
+        <v>3677.565312</v>
       </c>
       <c r="JE9" t="n">
-        <v>3487.108935</v>
+        <v>3487.089072</v>
       </c>
       <c r="JF9" t="n">
-        <v>3167.344196</v>
+        <v>3167.769954</v>
       </c>
       <c r="JG9" t="n">
-        <v>3539.935906</v>
+        <v>3539.614598</v>
       </c>
       <c r="JH9" t="n">
-        <v>4243.925612</v>
+        <v>4243.397927</v>
       </c>
       <c r="JI9" t="n">
-        <v>3898.476815</v>
+        <v>3898.192737</v>
       </c>
       <c r="JJ9" t="n">
-        <v>3833.639856</v>
+        <v>3834.409975</v>
       </c>
       <c r="JK9" t="n">
-        <v>4114.562647</v>
+        <v>4113.677655</v>
       </c>
       <c r="JL9" t="n">
-        <v>4028.649531</v>
+        <v>4028.469327</v>
       </c>
       <c r="JM9" t="n">
-        <v>2941.097239</v>
+        <v>2939.397709</v>
       </c>
       <c r="JN9" t="n">
-        <v>4085.010852</v>
+        <v>4081.989768</v>
       </c>
       <c r="JO9" t="n">
-        <v>3991.524288</v>
+        <v>3985.6868</v>
       </c>
       <c r="JP9" t="n">
-        <v>4204.807473</v>
+        <v>4189.996237</v>
       </c>
       <c r="JQ9" t="n">
-        <v>4175.801622</v>
+        <v>4137.330746</v>
       </c>
       <c r="JR9" t="n">
-        <v>3456.911971</v>
+        <v>3434.674331</v>
+      </c>
+      <c r="JS9" t="n">
+        <v>3969.858247</v>
       </c>
     </row>
     <row r="10">
@@ -8241,112 +8270,115 @@
         <v>2942.233264</v>
       </c>
       <c r="II10" t="n">
-        <v>3155.17116</v>
+        <v>3155.584403</v>
       </c>
       <c r="IJ10" t="n">
-        <v>3834.989789</v>
+        <v>3834.977798</v>
       </c>
       <c r="IK10" t="n">
-        <v>2559.448902</v>
+        <v>2559.674778</v>
       </c>
       <c r="IL10" t="n">
-        <v>2454.760415</v>
+        <v>2454.739264</v>
       </c>
       <c r="IM10" t="n">
-        <v>2654.837159</v>
+        <v>2655.012645</v>
       </c>
       <c r="IN10" t="n">
-        <v>2933.811772</v>
+        <v>2933.775668</v>
       </c>
       <c r="IO10" t="n">
-        <v>2668.237038</v>
+        <v>2668.212598</v>
       </c>
       <c r="IP10" t="n">
-        <v>2750.905575</v>
+        <v>2750.868125</v>
       </c>
       <c r="IQ10" t="n">
-        <v>3143.259155</v>
+        <v>3143.210699</v>
       </c>
       <c r="IR10" t="n">
-        <v>2659.029613</v>
+        <v>2658.983538</v>
       </c>
       <c r="IS10" t="n">
-        <v>2644.315143</v>
+        <v>2644.114842</v>
       </c>
       <c r="IT10" t="n">
-        <v>2349.719108</v>
+        <v>2349.568072</v>
       </c>
       <c r="IU10" t="n">
-        <v>2725.293827</v>
+        <v>2725.141818</v>
       </c>
       <c r="IV10" t="n">
-        <v>2585.729228</v>
+        <v>2585.582257</v>
       </c>
       <c r="IW10" t="n">
-        <v>1219.470613</v>
+        <v>1219.426572</v>
       </c>
       <c r="IX10" t="n">
-        <v>1475.187284</v>
+        <v>1475.137512</v>
       </c>
       <c r="IY10" t="n">
-        <v>2022.386226</v>
+        <v>2022.655227</v>
       </c>
       <c r="IZ10" t="n">
-        <v>2249.170773</v>
+        <v>2249.141133</v>
       </c>
       <c r="JA10" t="n">
-        <v>1768.77534</v>
+        <v>1768.876449</v>
       </c>
       <c r="JB10" t="n">
-        <v>2586.420483</v>
+        <v>2586.197056</v>
       </c>
       <c r="JC10" t="n">
-        <v>2661.085562</v>
+        <v>2660.692666</v>
       </c>
       <c r="JD10" t="n">
-        <v>2576.658646</v>
+        <v>2576.119182</v>
       </c>
       <c r="JE10" t="n">
-        <v>2738.887082</v>
+        <v>2738.29473</v>
       </c>
       <c r="JF10" t="n">
-        <v>1836.560534</v>
+        <v>1836.163618</v>
       </c>
       <c r="JG10" t="n">
-        <v>2137.292104</v>
+        <v>2137.423753</v>
       </c>
       <c r="JH10" t="n">
-        <v>2492.448591</v>
+        <v>2492.582665</v>
       </c>
       <c r="JI10" t="n">
-        <v>2281.937205</v>
+        <v>2281.602029</v>
       </c>
       <c r="JJ10" t="n">
-        <v>2175.488283</v>
+        <v>2175.727182</v>
       </c>
       <c r="JK10" t="n">
-        <v>2580.052751</v>
+        <v>2579.524942</v>
       </c>
       <c r="JL10" t="n">
-        <v>2354.473184</v>
+        <v>2354.703071</v>
       </c>
       <c r="JM10" t="n">
-        <v>2253.260532</v>
+        <v>2252.629751</v>
       </c>
       <c r="JN10" t="n">
-        <v>2604.350381</v>
+        <v>2602.583447</v>
       </c>
       <c r="JO10" t="n">
-        <v>2661.675558</v>
+        <v>2657.691185</v>
       </c>
       <c r="JP10" t="n">
-        <v>2746.593513</v>
+        <v>2739.696899</v>
       </c>
       <c r="JQ10" t="n">
-        <v>2912.505361</v>
+        <v>2950.175822</v>
       </c>
       <c r="JR10" t="n">
-        <v>2260.218607</v>
+        <v>2309.338182</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>2738.987799</v>
       </c>
     </row>
     <row r="11">
@@ -8864,7 +8896,7 @@
         <v>1820.036987</v>
       </c>
       <c r="HT11" t="n">
-        <v>1964.767498</v>
+        <v>1964.77387</v>
       </c>
       <c r="HU11" t="n">
         <v>1821.843817</v>
@@ -8909,112 +8941,115 @@
         <v>1803.75905</v>
       </c>
       <c r="II11" t="n">
-        <v>1824.313162</v>
+        <v>1824.30267</v>
       </c>
       <c r="IJ11" t="n">
-        <v>2389.557333</v>
+        <v>2389.301747</v>
       </c>
       <c r="IK11" t="n">
-        <v>1736.681013</v>
+        <v>1736.315603</v>
       </c>
       <c r="IL11" t="n">
-        <v>1685.448382</v>
+        <v>1685.020254</v>
       </c>
       <c r="IM11" t="n">
-        <v>1738.02795</v>
+        <v>1737.642726</v>
       </c>
       <c r="IN11" t="n">
-        <v>1704.682288</v>
+        <v>1704.280147</v>
       </c>
       <c r="IO11" t="n">
-        <v>1614.111066</v>
+        <v>1613.650799</v>
       </c>
       <c r="IP11" t="n">
-        <v>1784.98593</v>
+        <v>1784.499935</v>
       </c>
       <c r="IQ11" t="n">
-        <v>2124.24659</v>
+        <v>2123.737941</v>
       </c>
       <c r="IR11" t="n">
-        <v>1686.185325</v>
+        <v>1685.740349</v>
       </c>
       <c r="IS11" t="n">
-        <v>1683.568897</v>
+        <v>1683.054634</v>
       </c>
       <c r="IT11" t="n">
-        <v>1654.362698</v>
+        <v>1653.938332</v>
       </c>
       <c r="IU11" t="n">
-        <v>1735.453268</v>
+        <v>1734.960076</v>
       </c>
       <c r="IV11" t="n">
-        <v>1449.684734</v>
+        <v>1449.405632</v>
       </c>
       <c r="IW11" t="n">
-        <v>917.539596</v>
+        <v>917.253258</v>
       </c>
       <c r="IX11" t="n">
-        <v>1089.991018</v>
+        <v>1089.559646</v>
       </c>
       <c r="IY11" t="n">
-        <v>1402.081736</v>
+        <v>1401.430721</v>
       </c>
       <c r="IZ11" t="n">
-        <v>1357.38058</v>
+        <v>1356.795784</v>
       </c>
       <c r="JA11" t="n">
-        <v>1178.372498</v>
+        <v>1177.727874</v>
       </c>
       <c r="JB11" t="n">
-        <v>1621.297626</v>
+        <v>1635.687418</v>
       </c>
       <c r="JC11" t="n">
-        <v>1606.624738</v>
+        <v>1605.694437</v>
       </c>
       <c r="JD11" t="n">
-        <v>1546.413372</v>
+        <v>1545.790638</v>
       </c>
       <c r="JE11" t="n">
-        <v>1566.987221</v>
+        <v>1566.31086</v>
       </c>
       <c r="JF11" t="n">
-        <v>1111.978995</v>
+        <v>1111.451809</v>
       </c>
       <c r="JG11" t="n">
-        <v>1538.823811</v>
+        <v>1537.852291</v>
       </c>
       <c r="JH11" t="n">
-        <v>1925.694664</v>
+        <v>1924.606309</v>
       </c>
       <c r="JI11" t="n">
-        <v>1706.831248</v>
+        <v>1705.697805</v>
       </c>
       <c r="JJ11" t="n">
-        <v>1759.176277</v>
+        <v>1758.038696</v>
       </c>
       <c r="JK11" t="n">
-        <v>1927.645394</v>
+        <v>1926.061946</v>
       </c>
       <c r="JL11" t="n">
-        <v>2044.9182</v>
+        <v>2042.726898</v>
       </c>
       <c r="JM11" t="n">
-        <v>1483.543708</v>
+        <v>1481.60349</v>
       </c>
       <c r="JN11" t="n">
-        <v>1921.807367</v>
+        <v>1919.366097</v>
       </c>
       <c r="JO11" t="n">
-        <v>1893.279695</v>
+        <v>1902.772381</v>
       </c>
       <c r="JP11" t="n">
-        <v>2141.820409</v>
+        <v>2131.192614</v>
       </c>
       <c r="JQ11" t="n">
-        <v>2074.613887</v>
+        <v>2062.476564</v>
       </c>
       <c r="JR11" t="n">
-        <v>1851.492887</v>
+        <v>1856.955587</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>1876.617492</v>
       </c>
     </row>
     <row r="12">
@@ -9577,112 +9612,115 @@
         <v>3238.46036</v>
       </c>
       <c r="II12" t="n">
-        <v>3165.499641</v>
+        <v>3165.496146</v>
       </c>
       <c r="IJ12" t="n">
-        <v>3577.863935</v>
+        <v>3577.732635</v>
       </c>
       <c r="IK12" t="n">
-        <v>3646.356185</v>
+        <v>3645.881257</v>
       </c>
       <c r="IL12" t="n">
-        <v>3825.451975</v>
+        <v>3824.673992</v>
       </c>
       <c r="IM12" t="n">
-        <v>3788.866051</v>
+        <v>3788.1383</v>
       </c>
       <c r="IN12" t="n">
-        <v>4481.692738</v>
+        <v>4481.057112</v>
       </c>
       <c r="IO12" t="n">
-        <v>2986.750495</v>
+        <v>2986.500721</v>
       </c>
       <c r="IP12" t="n">
-        <v>3402.583499</v>
+        <v>3402.291044</v>
       </c>
       <c r="IQ12" t="n">
-        <v>3811.247858</v>
+        <v>3810.915761</v>
       </c>
       <c r="IR12" t="n">
-        <v>2931.51267</v>
+        <v>2931.251179</v>
       </c>
       <c r="IS12" t="n">
-        <v>3114.406605</v>
+        <v>3113.952372</v>
       </c>
       <c r="IT12" t="n">
-        <v>2868.092278</v>
+        <v>2867.745051</v>
       </c>
       <c r="IU12" t="n">
-        <v>2986.786638</v>
+        <v>2986.566586</v>
       </c>
       <c r="IV12" t="n">
-        <v>3704.358771</v>
+        <v>3704.079586</v>
       </c>
       <c r="IW12" t="n">
-        <v>2021.132596</v>
+        <v>2021.044234</v>
       </c>
       <c r="IX12" t="n">
-        <v>1901.401031</v>
+        <v>1901.326895</v>
       </c>
       <c r="IY12" t="n">
-        <v>2508.154428</v>
+        <v>2508.035776</v>
       </c>
       <c r="IZ12" t="n">
-        <v>3138.482872</v>
+        <v>3138.27338</v>
       </c>
       <c r="JA12" t="n">
-        <v>2049.660988</v>
+        <v>2052.280193</v>
       </c>
       <c r="JB12" t="n">
-        <v>3005.636564</v>
+        <v>3005.428633</v>
       </c>
       <c r="JC12" t="n">
-        <v>2936.291628</v>
+        <v>2935.942568</v>
       </c>
       <c r="JD12" t="n">
-        <v>2573.369869</v>
+        <v>2573.059311</v>
       </c>
       <c r="JE12" t="n">
-        <v>2543.839416</v>
+        <v>2543.568377</v>
       </c>
       <c r="JF12" t="n">
-        <v>2537.330196</v>
+        <v>2536.936618</v>
       </c>
       <c r="JG12" t="n">
-        <v>2450.454273</v>
+        <v>2452.021508</v>
       </c>
       <c r="JH12" t="n">
-        <v>3146.824598</v>
+        <v>3146.470883</v>
       </c>
       <c r="JI12" t="n">
-        <v>2968.774557</v>
+        <v>2968.359089</v>
       </c>
       <c r="JJ12" t="n">
-        <v>2898.170639</v>
+        <v>2897.593105</v>
       </c>
       <c r="JK12" t="n">
-        <v>3350.573063</v>
+        <v>3349.230512</v>
       </c>
       <c r="JL12" t="n">
-        <v>3149.901591</v>
+        <v>3148.892621</v>
       </c>
       <c r="JM12" t="n">
-        <v>2976.963882</v>
+        <v>2975.574874</v>
       </c>
       <c r="JN12" t="n">
-        <v>3068.742058</v>
+        <v>3066.238825</v>
       </c>
       <c r="JO12" t="n">
-        <v>3229.948675</v>
+        <v>3226.487554</v>
       </c>
       <c r="JP12" t="n">
-        <v>3130.00837</v>
+        <v>3126.729585</v>
       </c>
       <c r="JQ12" t="n">
-        <v>3332.877469</v>
+        <v>3332.615953</v>
       </c>
       <c r="JR12" t="n">
-        <v>4594.685714</v>
+        <v>4597.856638</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>3018.024445</v>
       </c>
     </row>
     <row r="13">
@@ -10248,109 +10286,112 @@
         <v>295.17032</v>
       </c>
       <c r="IJ13" t="n">
-        <v>328.116458</v>
+        <v>328.093549</v>
       </c>
       <c r="IK13" t="n">
-        <v>314.254644</v>
+        <v>314.192259</v>
       </c>
       <c r="IL13" t="n">
-        <v>337.608175</v>
+        <v>337.509237</v>
       </c>
       <c r="IM13" t="n">
-        <v>321.244253</v>
+        <v>321.147296</v>
       </c>
       <c r="IN13" t="n">
-        <v>371.171797</v>
+        <v>371.08911</v>
       </c>
       <c r="IO13" t="n">
-        <v>281.711806</v>
+        <v>281.67466</v>
       </c>
       <c r="IP13" t="n">
-        <v>300.486783</v>
+        <v>300.446022</v>
       </c>
       <c r="IQ13" t="n">
-        <v>369.802771</v>
+        <v>369.749446</v>
       </c>
       <c r="IR13" t="n">
-        <v>292.376692</v>
+        <v>292.333309</v>
       </c>
       <c r="IS13" t="n">
-        <v>262.939419</v>
+        <v>262.870765</v>
       </c>
       <c r="IT13" t="n">
-        <v>241.484828</v>
+        <v>241.432514</v>
       </c>
       <c r="IU13" t="n">
-        <v>277.925631</v>
+        <v>277.889016</v>
       </c>
       <c r="IV13" t="n">
-        <v>297.709909</v>
+        <v>297.670427</v>
       </c>
       <c r="IW13" t="n">
-        <v>212.260127</v>
+        <v>212.243798</v>
       </c>
       <c r="IX13" t="n">
-        <v>203.008479</v>
+        <v>202.994545</v>
       </c>
       <c r="IY13" t="n">
-        <v>261.532516</v>
+        <v>261.510747</v>
       </c>
       <c r="IZ13" t="n">
-        <v>302.256722</v>
+        <v>302.221559</v>
       </c>
       <c r="JA13" t="n">
-        <v>250.135852</v>
+        <v>250.100585</v>
       </c>
       <c r="JB13" t="n">
-        <v>282.412835</v>
+        <v>282.378172</v>
       </c>
       <c r="JC13" t="n">
-        <v>304.242931</v>
+        <v>304.181486</v>
       </c>
       <c r="JD13" t="n">
-        <v>259.296422</v>
+        <v>259.241413</v>
       </c>
       <c r="JE13" t="n">
-        <v>243.404365</v>
+        <v>243.360401</v>
       </c>
       <c r="JF13" t="n">
-        <v>254.78615</v>
+        <v>254.69984</v>
       </c>
       <c r="JG13" t="n">
-        <v>253.46862</v>
+        <v>253.427485</v>
       </c>
       <c r="JH13" t="n">
-        <v>286.879696</v>
+        <v>286.826152</v>
       </c>
       <c r="JI13" t="n">
-        <v>321.197773</v>
+        <v>321.11705</v>
       </c>
       <c r="JJ13" t="n">
-        <v>274.943357</v>
+        <v>274.854932</v>
       </c>
       <c r="JK13" t="n">
-        <v>316.64241</v>
+        <v>316.51363</v>
       </c>
       <c r="JL13" t="n">
-        <v>320.653498</v>
+        <v>320.478388</v>
       </c>
       <c r="JM13" t="n">
-        <v>280.125163</v>
+        <v>279.848344</v>
       </c>
       <c r="JN13" t="n">
-        <v>328.671503</v>
+        <v>328.378132</v>
       </c>
       <c r="JO13" t="n">
-        <v>369.646088</v>
+        <v>369.202066</v>
       </c>
       <c r="JP13" t="n">
-        <v>288.24193</v>
+        <v>287.623215</v>
       </c>
       <c r="JQ13" t="n">
-        <v>291.025761</v>
+        <v>291.672411</v>
       </c>
       <c r="JR13" t="n">
-        <v>266.58317</v>
+        <v>267.126214</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>297.929169</v>
       </c>
     </row>
     <row r="14">
@@ -10931,94 +10972,97 @@
         <v>313.151779</v>
       </c>
       <c r="IO14" t="n">
-        <v>319.371482</v>
+        <v>319.371408</v>
       </c>
       <c r="IP14" t="n">
-        <v>247.048799</v>
+        <v>247.048744</v>
       </c>
       <c r="IQ14" t="n">
-        <v>283.774327</v>
+        <v>283.77428</v>
       </c>
       <c r="IR14" t="n">
-        <v>245.085885</v>
+        <v>245.085848</v>
       </c>
       <c r="IS14" t="n">
-        <v>296.072205</v>
+        <v>296.072155</v>
       </c>
       <c r="IT14" t="n">
-        <v>346.238829</v>
+        <v>346.237859</v>
       </c>
       <c r="IU14" t="n">
-        <v>298.003918</v>
+        <v>298.002612</v>
       </c>
       <c r="IV14" t="n">
-        <v>274.876146</v>
+        <v>274.937186</v>
       </c>
       <c r="IW14" t="n">
-        <v>232.40053</v>
+        <v>232.399623</v>
       </c>
       <c r="IX14" t="n">
-        <v>242.073785</v>
+        <v>242.072057</v>
       </c>
       <c r="IY14" t="n">
-        <v>228.401398</v>
+        <v>228.399163</v>
       </c>
       <c r="IZ14" t="n">
-        <v>205.216033</v>
+        <v>205.214275</v>
       </c>
       <c r="JA14" t="n">
-        <v>210.632872</v>
+        <v>210.629624</v>
       </c>
       <c r="JB14" t="n">
-        <v>291.305476</v>
+        <v>291.300153</v>
       </c>
       <c r="JC14" t="n">
-        <v>306.26498</v>
+        <v>306.247456</v>
       </c>
       <c r="JD14" t="n">
-        <v>260.909414</v>
+        <v>260.89005</v>
       </c>
       <c r="JE14" t="n">
-        <v>231.458898</v>
+        <v>231.444811</v>
       </c>
       <c r="JF14" t="n">
-        <v>278.327424</v>
+        <v>278.296583</v>
       </c>
       <c r="JG14" t="n">
-        <v>270.457361</v>
+        <v>270.419621</v>
       </c>
       <c r="JH14" t="n">
-        <v>312.844728</v>
+        <v>312.80954</v>
       </c>
       <c r="JI14" t="n">
-        <v>326.055635</v>
+        <v>326.620497</v>
       </c>
       <c r="JJ14" t="n">
-        <v>196.69269</v>
+        <v>196.647447</v>
       </c>
       <c r="JK14" t="n">
-        <v>353.394358</v>
+        <v>353.296088</v>
       </c>
       <c r="JL14" t="n">
-        <v>399.450729</v>
+        <v>399.317463</v>
       </c>
       <c r="JM14" t="n">
-        <v>340.586044</v>
+        <v>340.423617</v>
       </c>
       <c r="JN14" t="n">
-        <v>382.513375</v>
+        <v>382.280572</v>
       </c>
       <c r="JO14" t="n">
-        <v>238.597873</v>
+        <v>238.147124</v>
       </c>
       <c r="JP14" t="n">
-        <v>373.031849</v>
+        <v>371.026084</v>
       </c>
       <c r="JQ14" t="n">
-        <v>425.844392</v>
+        <v>423.761447</v>
       </c>
       <c r="JR14" t="n">
-        <v>340.840608</v>
+        <v>343.631041</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>228.199377</v>
       </c>
     </row>
     <row r="15">
@@ -11584,109 +11628,112 @@
         <v>203.515226</v>
       </c>
       <c r="IJ15" t="n">
-        <v>210.208554</v>
+        <v>210.207325</v>
       </c>
       <c r="IK15" t="n">
-        <v>205.593104</v>
+        <v>205.58405</v>
       </c>
       <c r="IL15" t="n">
-        <v>250.556316</v>
+        <v>250.519449</v>
       </c>
       <c r="IM15" t="n">
-        <v>212.767924</v>
+        <v>212.740529</v>
       </c>
       <c r="IN15" t="n">
-        <v>295.36556</v>
+        <v>295.338504</v>
       </c>
       <c r="IO15" t="n">
-        <v>195.67719</v>
+        <v>195.666698</v>
       </c>
       <c r="IP15" t="n">
-        <v>215.029795</v>
+        <v>215.016776</v>
       </c>
       <c r="IQ15" t="n">
-        <v>254.207518</v>
+        <v>254.191476</v>
       </c>
       <c r="IR15" t="n">
-        <v>188.794159</v>
+        <v>188.781553</v>
       </c>
       <c r="IS15" t="n">
-        <v>216.739913</v>
+        <v>216.717641</v>
       </c>
       <c r="IT15" t="n">
-        <v>161.717165</v>
+        <v>161.703384</v>
       </c>
       <c r="IU15" t="n">
-        <v>214.936826</v>
+        <v>214.925685</v>
       </c>
       <c r="IV15" t="n">
-        <v>209.933076</v>
+        <v>209.92221</v>
       </c>
       <c r="IW15" t="n">
-        <v>149.512731</v>
+        <v>149.508248</v>
       </c>
       <c r="IX15" t="n">
-        <v>195.780719</v>
+        <v>195.775496</v>
       </c>
       <c r="IY15" t="n">
-        <v>249.867395</v>
+        <v>249.859281</v>
       </c>
       <c r="IZ15" t="n">
-        <v>261.102349</v>
+        <v>261.090574</v>
       </c>
       <c r="JA15" t="n">
-        <v>220.213952</v>
+        <v>220.202442</v>
       </c>
       <c r="JB15" t="n">
-        <v>252.092891</v>
+        <v>252.081427</v>
       </c>
       <c r="JC15" t="n">
-        <v>255.453851</v>
+        <v>255.434381</v>
       </c>
       <c r="JD15" t="n">
-        <v>260.903804</v>
+        <v>260.882047</v>
       </c>
       <c r="JE15" t="n">
-        <v>270.237208</v>
+        <v>270.216614</v>
       </c>
       <c r="JF15" t="n">
-        <v>213.26914</v>
+        <v>213.234189</v>
       </c>
       <c r="JG15" t="n">
-        <v>243.535808</v>
+        <v>243.519149</v>
       </c>
       <c r="JH15" t="n">
-        <v>257.134756</v>
+        <v>257.112936</v>
       </c>
       <c r="JI15" t="n">
-        <v>229.845138</v>
+        <v>229.816148</v>
       </c>
       <c r="JJ15" t="n">
-        <v>270.922922</v>
+        <v>270.874612</v>
       </c>
       <c r="JK15" t="n">
-        <v>269.244719</v>
+        <v>269.177972</v>
       </c>
       <c r="JL15" t="n">
-        <v>258.436076</v>
+        <v>258.339169</v>
       </c>
       <c r="JM15" t="n">
-        <v>239.772887</v>
+        <v>239.6493</v>
       </c>
       <c r="JN15" t="n">
-        <v>256.358012</v>
+        <v>256.185375</v>
       </c>
       <c r="JO15" t="n">
-        <v>257.958716</v>
+        <v>257.728066</v>
       </c>
       <c r="JP15" t="n">
-        <v>247.24601</v>
+        <v>246.902324</v>
       </c>
       <c r="JQ15" t="n">
-        <v>282.223429</v>
+        <v>282.859482</v>
       </c>
       <c r="JR15" t="n">
-        <v>243.477225</v>
+        <v>243.752961</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>243.162987</v>
       </c>
     </row>
     <row r="16">
@@ -12264,7 +12311,7 @@
         <v>65.798872</v>
       </c>
       <c r="IN16" t="n">
-        <v>102.561942</v>
+        <v>102.56754</v>
       </c>
       <c r="IO16" t="n">
         <v>77.42415</v>
@@ -12273,88 +12320,91 @@
         <v>85.818406</v>
       </c>
       <c r="IQ16" t="n">
-        <v>114.202769</v>
+        <v>114.213965</v>
       </c>
       <c r="IR16" t="n">
-        <v>72.930907</v>
+        <v>72.94039100000001</v>
       </c>
       <c r="IS16" t="n">
-        <v>90.073329</v>
+        <v>90.087728</v>
       </c>
       <c r="IT16" t="n">
-        <v>49.464737</v>
+        <v>49.469258</v>
       </c>
       <c r="IU16" t="n">
-        <v>78.44164499999999</v>
+        <v>78.450924</v>
       </c>
       <c r="IV16" t="n">
-        <v>46.62656</v>
+        <v>46.625501</v>
       </c>
       <c r="IW16" t="n">
-        <v>60.604733</v>
+        <v>60.603422</v>
       </c>
       <c r="IX16" t="n">
-        <v>77.804956</v>
+        <v>77.80287300000001</v>
       </c>
       <c r="IY16" t="n">
-        <v>54.977026</v>
+        <v>54.975549</v>
       </c>
       <c r="IZ16" t="n">
-        <v>75.21813</v>
+        <v>75.2145</v>
       </c>
       <c r="JA16" t="n">
-        <v>28.518852</v>
+        <v>28.5172</v>
       </c>
       <c r="JB16" t="n">
-        <v>61.334114</v>
+        <v>61.330658</v>
       </c>
       <c r="JC16" t="n">
-        <v>42.07639</v>
+        <v>42.074223</v>
       </c>
       <c r="JD16" t="n">
-        <v>60.016088</v>
+        <v>60.013638</v>
       </c>
       <c r="JE16" t="n">
-        <v>74.04219999999999</v>
+        <v>74.039592</v>
       </c>
       <c r="JF16" t="n">
-        <v>51.265409</v>
+        <v>51.263168</v>
       </c>
       <c r="JG16" t="n">
-        <v>59.717372</v>
+        <v>59.714755</v>
       </c>
       <c r="JH16" t="n">
-        <v>104.797622</v>
+        <v>104.794081</v>
       </c>
       <c r="JI16" t="n">
-        <v>119.133137</v>
+        <v>119.126964</v>
       </c>
       <c r="JJ16" t="n">
-        <v>75.92125799999999</v>
+        <v>75.915299</v>
       </c>
       <c r="JK16" t="n">
-        <v>113.066551</v>
+        <v>113.054926</v>
       </c>
       <c r="JL16" t="n">
-        <v>105.034095</v>
+        <v>105.027896</v>
       </c>
       <c r="JM16" t="n">
-        <v>51.233514</v>
+        <v>51.226903</v>
       </c>
       <c r="JN16" t="n">
-        <v>62.434313</v>
+        <v>62.464346</v>
       </c>
       <c r="JO16" t="n">
-        <v>93.063784</v>
+        <v>93.052131</v>
       </c>
       <c r="JP16" t="n">
-        <v>93.667306</v>
+        <v>93.511472</v>
       </c>
       <c r="JQ16" t="n">
-        <v>36.512437</v>
+        <v>36.457927</v>
       </c>
       <c r="JR16" t="n">
-        <v>246.393022</v>
+        <v>246.564869</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>124.772762</v>
       </c>
     </row>
     <row r="17">
@@ -12917,112 +12967,115 @@
         <v>498.967201</v>
       </c>
       <c r="II17" t="n">
-        <v>559.29572</v>
+        <v>559.295632</v>
       </c>
       <c r="IJ17" t="n">
-        <v>858.250322</v>
+        <v>858.236472</v>
       </c>
       <c r="IK17" t="n">
-        <v>528.7310230000001</v>
+        <v>528.700442</v>
       </c>
       <c r="IL17" t="n">
-        <v>805.216513</v>
+        <v>805.12204</v>
       </c>
       <c r="IM17" t="n">
-        <v>697.5806250000001</v>
+        <v>697.4899</v>
       </c>
       <c r="IN17" t="n">
-        <v>659.294281</v>
+        <v>659.234903</v>
       </c>
       <c r="IO17" t="n">
-        <v>571.375344</v>
+        <v>571.345249</v>
       </c>
       <c r="IP17" t="n">
-        <v>630.889301</v>
+        <v>630.8558399999999</v>
       </c>
       <c r="IQ17" t="n">
-        <v>792.7339030000001</v>
+        <v>792.6920260000001</v>
       </c>
       <c r="IR17" t="n">
-        <v>480.85336</v>
+        <v>480.82801</v>
       </c>
       <c r="IS17" t="n">
-        <v>630.146801</v>
+        <v>630.093266</v>
       </c>
       <c r="IT17" t="n">
-        <v>484.655379</v>
+        <v>484.621173</v>
       </c>
       <c r="IU17" t="n">
-        <v>469.440959</v>
+        <v>469.420819</v>
       </c>
       <c r="IV17" t="n">
-        <v>490.468292</v>
+        <v>490.447041</v>
       </c>
       <c r="IW17" t="n">
-        <v>395.218493</v>
+        <v>395.208556</v>
       </c>
       <c r="IX17" t="n">
-        <v>453.317498</v>
+        <v>453.307337</v>
       </c>
       <c r="IY17" t="n">
-        <v>394.519047</v>
+        <v>394.508312</v>
       </c>
       <c r="IZ17" t="n">
-        <v>445.670888</v>
+        <v>445.65377</v>
       </c>
       <c r="JA17" t="n">
-        <v>337.524276</v>
+        <v>337.509262</v>
       </c>
       <c r="JB17" t="n">
-        <v>525.6109729999999</v>
+        <v>525.588988</v>
       </c>
       <c r="JC17" t="n">
-        <v>479.17057</v>
+        <v>479.14101</v>
       </c>
       <c r="JD17" t="n">
-        <v>432.215244</v>
+        <v>432.185573</v>
       </c>
       <c r="JE17" t="n">
-        <v>765.712773</v>
+        <v>765.660704</v>
       </c>
       <c r="JF17" t="n">
-        <v>557.277695</v>
+        <v>557.203093</v>
       </c>
       <c r="JG17" t="n">
-        <v>408.187957</v>
+        <v>408.163017</v>
       </c>
       <c r="JH17" t="n">
-        <v>519.982727</v>
+        <v>519.945662</v>
       </c>
       <c r="JI17" t="n">
-        <v>513.813185</v>
+        <v>513.759909</v>
       </c>
       <c r="JJ17" t="n">
-        <v>401.228091</v>
+        <v>401.158107</v>
       </c>
       <c r="JK17" t="n">
-        <v>565.865455</v>
+        <v>565.728354</v>
       </c>
       <c r="JL17" t="n">
-        <v>420.753512</v>
+        <v>420.824016</v>
       </c>
       <c r="JM17" t="n">
-        <v>583.579699</v>
+        <v>583.387886</v>
       </c>
       <c r="JN17" t="n">
-        <v>668.357047</v>
+        <v>668.091524</v>
       </c>
       <c r="JO17" t="n">
-        <v>905.023772</v>
+        <v>904.4647650000001</v>
       </c>
       <c r="JP17" t="n">
-        <v>469.541732</v>
+        <v>468.839265</v>
       </c>
       <c r="JQ17" t="n">
-        <v>651.7027869999999</v>
+        <v>651.971613</v>
       </c>
       <c r="JR17" t="n">
-        <v>447.730377</v>
+        <v>447.802009</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>594.584177</v>
       </c>
     </row>
     <row r="18">
@@ -13588,109 +13641,112 @@
         <v>836.181947</v>
       </c>
       <c r="IJ18" t="n">
-        <v>964.097853</v>
+        <v>964.0964760000001</v>
       </c>
       <c r="IK18" t="n">
-        <v>889.218856</v>
+        <v>889.217776</v>
       </c>
       <c r="IL18" t="n">
-        <v>896.015356</v>
+        <v>895.989271</v>
       </c>
       <c r="IM18" t="n">
-        <v>825.196943</v>
+        <v>825.179454</v>
       </c>
       <c r="IN18" t="n">
-        <v>912.058004</v>
+        <v>912.04078</v>
       </c>
       <c r="IO18" t="n">
-        <v>709.416006</v>
+        <v>709.4028980000001</v>
       </c>
       <c r="IP18" t="n">
-        <v>930.8099099999999</v>
+        <v>930.794743</v>
       </c>
       <c r="IQ18" t="n">
-        <v>980.213441</v>
+        <v>980.197807</v>
       </c>
       <c r="IR18" t="n">
-        <v>811.194392</v>
+        <v>811.1741479999999</v>
       </c>
       <c r="IS18" t="n">
-        <v>737.1205</v>
+        <v>737.099936</v>
       </c>
       <c r="IT18" t="n">
-        <v>879.6687429999999</v>
+        <v>879.649976</v>
       </c>
       <c r="IU18" t="n">
-        <v>751.424052</v>
+        <v>751.41286</v>
       </c>
       <c r="IV18" t="n">
-        <v>766.240667</v>
+        <v>766.219001</v>
       </c>
       <c r="IW18" t="n">
-        <v>589.503044</v>
+        <v>589.516564</v>
       </c>
       <c r="IX18" t="n">
-        <v>599.656044</v>
+        <v>599.609073</v>
       </c>
       <c r="IY18" t="n">
-        <v>768.5091660000001</v>
+        <v>768.499073</v>
       </c>
       <c r="IZ18" t="n">
-        <v>640.2686200000001</v>
+        <v>640.2234130000001</v>
       </c>
       <c r="JA18" t="n">
-        <v>618.671026</v>
+        <v>618.604299</v>
       </c>
       <c r="JB18" t="n">
-        <v>730.1127739999999</v>
+        <v>730.035354</v>
       </c>
       <c r="JC18" t="n">
-        <v>693.7376379999999</v>
+        <v>693.672356</v>
       </c>
       <c r="JD18" t="n">
-        <v>707.567185</v>
+        <v>707.512425</v>
       </c>
       <c r="JE18" t="n">
-        <v>694.181379</v>
+        <v>694.131668</v>
       </c>
       <c r="JF18" t="n">
-        <v>745.156308</v>
+        <v>745.088403</v>
       </c>
       <c r="JG18" t="n">
-        <v>783.815229</v>
+        <v>784.046289</v>
       </c>
       <c r="JH18" t="n">
-        <v>861.51136</v>
+        <v>861.657706</v>
       </c>
       <c r="JI18" t="n">
-        <v>795.592088</v>
+        <v>795.731294</v>
       </c>
       <c r="JJ18" t="n">
-        <v>777.685173</v>
+        <v>777.751666</v>
       </c>
       <c r="JK18" t="n">
-        <v>864.29108</v>
+        <v>865.232354</v>
       </c>
       <c r="JL18" t="n">
-        <v>769.511927</v>
+        <v>770.336949</v>
       </c>
       <c r="JM18" t="n">
-        <v>590.111113</v>
+        <v>591.094368</v>
       </c>
       <c r="JN18" t="n">
-        <v>751.545259</v>
+        <v>752.132026</v>
       </c>
       <c r="JO18" t="n">
-        <v>879.5925549999999</v>
+        <v>879.563075</v>
       </c>
       <c r="JP18" t="n">
-        <v>804.661893</v>
+        <v>803.69674</v>
       </c>
       <c r="JQ18" t="n">
-        <v>766.5579269999999</v>
+        <v>764.864789</v>
       </c>
       <c r="JR18" t="n">
-        <v>748.342146</v>
+        <v>815.442807</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>812.958527</v>
       </c>
     </row>
     <row r="19">
@@ -14256,109 +14312,112 @@
         <v>1637.453637</v>
       </c>
       <c r="IJ19" t="n">
-        <v>1523.045098</v>
+        <v>1523.039237</v>
       </c>
       <c r="IK19" t="n">
-        <v>1648.69093</v>
+        <v>1648.668691</v>
       </c>
       <c r="IL19" t="n">
-        <v>1801.713596</v>
+        <v>1801.674331</v>
       </c>
       <c r="IM19" t="n">
-        <v>1732.96052</v>
+        <v>1732.916691</v>
       </c>
       <c r="IN19" t="n">
-        <v>1603.486256</v>
+        <v>1603.457161</v>
       </c>
       <c r="IO19" t="n">
-        <v>1255.553164</v>
+        <v>1255.539833</v>
       </c>
       <c r="IP19" t="n">
-        <v>1525.291315</v>
+        <v>1525.274905</v>
       </c>
       <c r="IQ19" t="n">
-        <v>2026.236879</v>
+        <v>2026.213498</v>
       </c>
       <c r="IR19" t="n">
-        <v>1970.902049</v>
+        <v>1970.879446</v>
       </c>
       <c r="IS19" t="n">
-        <v>2002.153739</v>
+        <v>2002.115978</v>
       </c>
       <c r="IT19" t="n">
-        <v>1146.561368</v>
+        <v>1146.543242</v>
       </c>
       <c r="IU19" t="n">
-        <v>1040.368359</v>
+        <v>1040.35836</v>
       </c>
       <c r="IV19" t="n">
-        <v>1365.854061</v>
+        <v>1365.840449</v>
       </c>
       <c r="IW19" t="n">
-        <v>1238.106871</v>
+        <v>1238.099714</v>
       </c>
       <c r="IX19" t="n">
-        <v>1102.644667</v>
+        <v>1102.638975</v>
       </c>
       <c r="IY19" t="n">
-        <v>1454.237096</v>
+        <v>1454.227769</v>
       </c>
       <c r="IZ19" t="n">
-        <v>1534.081332</v>
+        <v>1534.067283</v>
       </c>
       <c r="JA19" t="n">
-        <v>1248.034432</v>
+        <v>1248.021128</v>
       </c>
       <c r="JB19" t="n">
-        <v>1413.205848</v>
+        <v>1413.192737</v>
       </c>
       <c r="JC19" t="n">
-        <v>1590.628412</v>
+        <v>1590.569273</v>
       </c>
       <c r="JD19" t="n">
-        <v>1915.422348</v>
+        <v>1915.313458</v>
       </c>
       <c r="JE19" t="n">
-        <v>2562.82646</v>
+        <v>2562.676168</v>
       </c>
       <c r="JF19" t="n">
-        <v>1549.318916</v>
+        <v>1549.222654</v>
       </c>
       <c r="JG19" t="n">
-        <v>1718.545893</v>
+        <v>1718.442831</v>
       </c>
       <c r="JH19" t="n">
-        <v>1813.594078</v>
+        <v>1813.470369</v>
       </c>
       <c r="JI19" t="n">
-        <v>2569.415775</v>
+        <v>2569.1843</v>
       </c>
       <c r="JJ19" t="n">
-        <v>2009.161242</v>
+        <v>2008.950608</v>
       </c>
       <c r="JK19" t="n">
-        <v>2347.53563</v>
+        <v>2347.253859</v>
       </c>
       <c r="JL19" t="n">
-        <v>1995.322648</v>
+        <v>1994.976747</v>
       </c>
       <c r="JM19" t="n">
-        <v>2052.408917</v>
+        <v>2052.011758</v>
       </c>
       <c r="JN19" t="n">
-        <v>1946.290506</v>
+        <v>1945.76537</v>
       </c>
       <c r="JO19" t="n">
-        <v>1972.063034</v>
+        <v>2012.291854</v>
       </c>
       <c r="JP19" t="n">
-        <v>2057.723717</v>
+        <v>2056.312214</v>
       </c>
       <c r="JQ19" t="n">
-        <v>2373.782429</v>
+        <v>2372.725308</v>
       </c>
       <c r="JR19" t="n">
-        <v>1700.371349</v>
+        <v>1700.70213</v>
+      </c>
+      <c r="JS19" t="n">
+        <v>1803.363001</v>
       </c>
     </row>
     <row r="20">
@@ -15088,115 +15147,118 @@
         <v>4153.983385</v>
       </c>
       <c r="IH20" t="n">
-        <v>4665.538225</v>
+        <v>4666.251757</v>
       </c>
       <c r="II20" t="n">
-        <v>4153.612463</v>
+        <v>4153.60733</v>
       </c>
       <c r="IJ20" t="n">
-        <v>3964.819889</v>
+        <v>3968.027298</v>
       </c>
       <c r="IK20" t="n">
-        <v>3935.48927</v>
+        <v>3936.943702</v>
       </c>
       <c r="IL20" t="n">
-        <v>4126.016248</v>
+        <v>4129.7087</v>
       </c>
       <c r="IM20" t="n">
-        <v>4162.338563</v>
+        <v>4166.515235</v>
       </c>
       <c r="IN20" t="n">
-        <v>4724.96118</v>
+        <v>4724.94334</v>
       </c>
       <c r="IO20" t="n">
-        <v>4401.344538</v>
+        <v>4402.033627</v>
       </c>
       <c r="IP20" t="n">
-        <v>4811.414922</v>
+        <v>4811.947186</v>
       </c>
       <c r="IQ20" t="n">
-        <v>5209.391075</v>
+        <v>5209.678749</v>
       </c>
       <c r="IR20" t="n">
-        <v>4751.11774</v>
+        <v>4751.68209</v>
       </c>
       <c r="IS20" t="n">
-        <v>4340.257453</v>
+        <v>4340.515266</v>
       </c>
       <c r="IT20" t="n">
-        <v>4669.881664</v>
+        <v>4670.129257</v>
       </c>
       <c r="IU20" t="n">
-        <v>4186.945137</v>
+        <v>4187.295954</v>
       </c>
       <c r="IV20" t="n">
-        <v>3264.688528</v>
+        <v>3264.964827</v>
       </c>
       <c r="IW20" t="n">
-        <v>3557.170735</v>
+        <v>3557.513534</v>
       </c>
       <c r="IX20" t="n">
-        <v>5038.295037</v>
+        <v>5038.334332</v>
       </c>
       <c r="IY20" t="n">
-        <v>5395.129624</v>
+        <v>5395.050042</v>
       </c>
       <c r="IZ20" t="n">
-        <v>5178.729216</v>
+        <v>5178.813</v>
       </c>
       <c r="JA20" t="n">
-        <v>4729.758933</v>
+        <v>4729.746426</v>
       </c>
       <c r="JB20" t="n">
-        <v>5222.286015</v>
+        <v>5222.055042</v>
       </c>
       <c r="JC20" t="n">
-        <v>5031.009488</v>
+        <v>5030.959572</v>
       </c>
       <c r="JD20" t="n">
-        <v>5236.561081</v>
+        <v>5236.102979</v>
       </c>
       <c r="JE20" t="n">
-        <v>4977.017686</v>
+        <v>4976.773932</v>
       </c>
       <c r="JF20" t="n">
-        <v>4950.85603</v>
+        <v>4950.810128</v>
       </c>
       <c r="JG20" t="n">
-        <v>4340.772213</v>
+        <v>4342.517816</v>
       </c>
       <c r="JH20" t="n">
-        <v>5249.552894</v>
+        <v>5249.465907</v>
       </c>
       <c r="JI20" t="n">
-        <v>4694.79885</v>
+        <v>4694.764072</v>
       </c>
       <c r="JJ20" t="n">
-        <v>4759.774392</v>
+        <v>4760.304509</v>
       </c>
       <c r="JK20" t="n">
-        <v>4904.36146</v>
+        <v>4903.646588</v>
       </c>
       <c r="JL20" t="n">
-        <v>5041.144478</v>
+        <v>5040.168175</v>
       </c>
       <c r="JM20" t="n">
-        <v>5340.25269</v>
+        <v>5338.727883</v>
       </c>
       <c r="JN20" t="n">
-        <v>5740.124052</v>
+        <v>5738.365156</v>
       </c>
       <c r="JO20" t="n">
-        <v>5841.946137</v>
+        <v>5841.014412</v>
       </c>
       <c r="JP20" t="n">
-        <v>6167.228702</v>
+        <v>6157.697417</v>
       </c>
       <c r="JQ20" t="n">
-        <v>6807.961154</v>
+        <v>6788.308432</v>
       </c>
       <c r="JR20" t="n">
-        <v>6694.393319</v>
+        <v>6689.740177</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>5735.151232</v>
       </c>
     </row>
   </sheetData>
